--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>benchmark</t>
   </si>
@@ -113,6 +113,36 @@
   </si>
   <si>
     <t>1-hot sequence 200, only Boolean Taken/NotTaken, NO program counter information</t>
+  </si>
+  <si>
+    <t>600.perlbench</t>
+  </si>
+  <si>
+    <t>70.000-80.000</t>
+  </si>
+  <si>
+    <t>0-70.000</t>
+  </si>
+  <si>
+    <t>0.76 steady</t>
+  </si>
+  <si>
+    <t>0.55 steady</t>
+  </si>
+  <si>
+    <t>'type': '1-hot sequence-200 only Taken/NotTaken, no program counter', 'batch_size': 64</t>
+  </si>
+  <si>
+    <t>0.60 steady</t>
+  </si>
+  <si>
+    <t>0.70 steady</t>
+  </si>
+  <si>
+    <t>Not Trainable</t>
+  </si>
+  <si>
+    <t>lstm64.pt</t>
   </si>
 </sst>
 </file>
@@ -520,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,6 +678,47 @@
       </c>
       <c r="M3" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>benchmark</t>
   </si>
@@ -143,6 +143,23 @@
   </si>
   <si>
     <t>lstm64.pt</t>
+  </si>
+  <si>
+    <t>lstm128_lr1e-4</t>
+  </si>
+  <si>
+    <t>RNNLayer(
+  (rnn): LSTM(2, 128, batch_first=True)
+  (normalization): BatchNorm1d(128, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
+  (fc): Linear(in_features=128, out_features=2, bias=True)
+  (softmax): Softmax(dim=-1)
+)</t>
+  </si>
+  <si>
+    <t>0-60.000</t>
+  </si>
+  <si>
+    <t>60.000-70.000</t>
   </si>
 </sst>
 </file>
@@ -550,16 +567,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="38.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
@@ -719,6 +736,44 @@
       </c>
       <c r="M4" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.46619396782698302</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.83560466152964397</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.44488209486007602</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.85869411930616202</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>benchmark</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>60.000-70.000</t>
+  </si>
+  <si>
+    <t>lstm128_lr1e-5</t>
+  </si>
+  <si>
+    <t>100-90.000</t>
+  </si>
+  <si>
+    <t>90.000-100.000</t>
   </si>
 </sst>
 </file>
@@ -567,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,14 +588,14 @@
     <col min="2" max="2" width="97.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="38.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="63.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="38.5703125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -605,28 +614,28 @@
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>17</v>
@@ -645,20 +654,20 @@
       <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -669,29 +678,29 @@
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>18</v>
@@ -711,34 +720,34 @@
         <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>100</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -752,28 +761,66 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>100</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.46619396782698302</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.83560466152964397</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0.44488209486007602</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>0.85869411930616202</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>15</v>
+    </row>
+    <row r="6" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1">
+        <v>300</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.43877539889849798</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.86418295996080696</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.38935984671115798</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.86938856406699005</v>
       </c>
     </row>
   </sheetData>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>benchmark</t>
   </si>
@@ -169,6 +169,21 @@
   </si>
   <si>
     <t>90.000-100.000</t>
+  </si>
+  <si>
+    <t>lstm128_2layer_lr1e-4</t>
+  </si>
+  <si>
+    <t>RNNLayer(
+  (rnn): LSTM(2, 128, num_layers=2, batch_first=True)
+  (normalization): BatchNorm1d(128, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
+  (fc): Linear(in_features=128, out_features=2, bias=True)
+  (softmax): Softmax(dim=-1)
+)</t>
+  </si>
+  <si>
+    <t>type': '1-hot sequence-200 only Taken/NotTaken, no program counter',
+'batch_size': 64</t>
   </si>
 </sst>
 </file>
@@ -249,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,6 +288,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -576,10 +594,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,6 +841,44 @@
       </c>
       <c r="L6" s="1">
         <v>0.86938856406699005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1">
+        <v>150</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.448545122227268</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.85554268917293896</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.374949961900711</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.88395600039639199</v>
       </c>
     </row>
   </sheetData>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>benchmark</t>
   </si>
@@ -184,6 +184,17 @@
   <si>
     <t>type': '1-hot sequence-200 only Taken/NotTaken, no program counter',
 'batch_size': 64</t>
+  </si>
+  <si>
+    <t>RNNLayer(
+  (rnn): LSTM(2, 256, batch_first=True)
+  (normalization): BatchNorm1d(256, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
+  (fc): Linear(in_features=256, out_features=2, bias=True)
+  (softmax): Softmax(dim=-1)
+)</t>
+  </si>
+  <si>
+    <t>lstm256_1layer</t>
   </si>
 </sst>
 </file>
@@ -594,12 +605,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +619,7 @@
     <col min="2" max="2" width="97.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="38.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
@@ -879,6 +890,44 @@
       </c>
       <c r="L7" s="1">
         <v>0.88395600039639199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1">
+        <v>150</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.43356797496053201</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.86986148844252398</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.37473037838935802</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.88068575958775097</v>
       </c>
     </row>
   </sheetData>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>benchmark</t>
   </si>
@@ -39,28 +39,12 @@
     <t>Validation Accuracy</t>
   </si>
   <si>
-    <t>0-50000</t>
-  </si>
-  <si>
     <t>Epochs</t>
   </si>
   <si>
     <t>Model No</t>
   </si>
   <si>
-    <t>Model 1</t>
-  </si>
-  <si>
-    <t>600.perlbench
-620.omnetpp</t>
-  </si>
-  <si>
-    <t>Model 2</t>
-  </si>
-  <si>
-    <t>50000-60000</t>
-  </si>
-  <si>
     <t>Training parameters</t>
   </si>
   <si>
@@ -71,9 +55,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Παραπανω training</t>
   </si>
   <si>
     <t>RNNLayer(
@@ -83,36 +64,10 @@
 )</t>
   </si>
   <si>
-    <t>RNNLayer(
-  (rnn): LSTM(2, 32, batch_first=True)
-  (normalization): BatchNorm1d(32, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
-  (fc): Linear(in_features=32, out_features=2, bias=True)
-  (softmax): Softmax(dim=-1)
-)</t>
-  </si>
-  <si>
-    <t>[0.669, 0.612, 0.584, 0.58, 0.576, 0.574, 0.573, 0.572, 0.572, 0.575, 0.57, 0.57, 0.568, 0.566, 0.564, 0.561, 0.559, 0.557, 0.558, 0.556, 0.553, 0.553, 0.552, 0.55, 0.549, 0.55, 0.547, 0.549, 0.545, 0.545]</t>
-  </si>
-  <si>
-    <t>[0.657, 0.61, 0.603, 0.6, 0.598, 0.596, 0.668, 0.595, 0.599, 0.632, 0.593, 0.597, 0.59, 0.584, 0.59, 0.575, 0.572, 0.572, 0.568, 0.573, 0.568, 0.566, 0.581, 0.569, 0.586, 0.561, 0.56, 0.559, 0.579, 0.554]</t>
-  </si>
-  <si>
-    <t>[0.611, 0.699, 0.723, 0.723, 0.725, 0.726, 0.727, 0.728, 0.728, 0.724, 0.73, 0.729, 0.732, 0.735, 0.736, 0.74, 0.743, 0.746, 0.745, 0.747, 0.749, 0.75, 0.751, 0.753, 0.754, 0.753, 0.755, 0.754, 0.759, 0.759]</t>
-  </si>
-  <si>
-    <t>[0.629, 0.765, 0.763, 0.765, 0.764, 0.767, 0.636, 0.77, 0.768, 0.703, 0.77, 0.767, 0.777, 0.782, 0.773, 0.788, 0.789, 0.791, 0.793, 0.792, 0.793, 0.796, 0.785, 0.797, 0.78, 0.797, 0.8, 0.8, 0.78, 0.805]</t>
-  </si>
-  <si>
-    <t>50.000-60.000</t>
-  </si>
-  <si>
     <t>Model Structure</t>
   </si>
   <si>
     <t>Input Data</t>
-  </si>
-  <si>
-    <t>1-hot sequence 200, only Boolean Taken/NotTaken, NO program counter information</t>
   </si>
   <si>
     <t>600.perlbench</t>
@@ -156,12 +111,6 @@
 )</t>
   </si>
   <si>
-    <t>0-60.000</t>
-  </si>
-  <si>
-    <t>60.000-70.000</t>
-  </si>
-  <si>
     <t>lstm128_lr1e-5</t>
   </si>
   <si>
@@ -195,6 +144,16 @@
   </si>
   <si>
     <t>lstm256_1layer</t>
+  </si>
+  <si>
+    <t>overfitted den eixe accuracy 
+sto upoloipo benchmark</t>
+  </si>
+  <si>
+    <t>0-160.000</t>
+  </si>
+  <si>
+    <t>160.000-200.000</t>
   </si>
 </sst>
 </file>
@@ -605,12 +564,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,19 +592,19 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -654,7 +613,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>3</v>
@@ -669,265 +628,212 @@
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="H2" s="1">
+        <v>100</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1">
         <v>30</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>0.49206424059391302</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.812608386322202</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.53567963838577204</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.77399829923465502</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
-      </c>
-      <c r="I4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.43877539889849798</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.86418295996080696</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.38935984671115798</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.86938856406699005</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1">
+        <v>150</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.448545122227268</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.85554268917293896</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.374949961900711</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.88395600039639199</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="1">
-        <v>100</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.46619396782698302</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.83560466152964397</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.44488209486007602</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.85869411930616202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I6" s="1">
-        <v>0.43877539889849798</v>
+        <v>0.43356797496053201</v>
       </c>
       <c r="J6" s="1">
-        <v>0.86418295996080696</v>
+        <v>0.86986148844252398</v>
       </c>
       <c r="K6" s="1">
-        <v>0.38935984671115798</v>
+        <v>0.37473037838935802</v>
       </c>
       <c r="L6" s="1">
-        <v>0.86938856406699005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="1">
-        <v>150</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.448545122227268</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.85554268917293896</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.374949961900711</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.88395600039639199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="1">
-        <v>150</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.43356797496053201</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.86986148844252398</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.37473037838935802</v>
-      </c>
-      <c r="L8" s="1">
         <v>0.88068575958775097</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>benchmark</t>
   </si>
@@ -143,17 +143,31 @@
 )</t>
   </si>
   <si>
-    <t>lstm256_1layer</t>
-  </si>
-  <si>
-    <t>overfitted den eixe accuracy 
-sto upoloipo benchmark</t>
-  </si>
-  <si>
     <t>0-160.000</t>
   </si>
   <si>
     <t>160.000-200.000</t>
+  </si>
+  <si>
+    <t>100-150.000</t>
+  </si>
+  <si>
+    <t>150.000-250.000</t>
+  </si>
+  <si>
+    <t>lstm256_1layer_lr1e-4.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81% acc sto 300.000-500.000</t>
+  </si>
+  <si>
+    <t>unstable, needs bigger batch and lower lr(?) isws ligotera hidden layers</t>
+  </si>
+  <si>
+    <t>overfitted den eixe accuracy sto upoloipo benchmark, na dokimasw megalutero dataset 82% sto 300K - 700K</t>
+  </si>
+  <si>
+    <t>overfitted den eixe accuracy sto upoloipo benchmar, na dokimasw megalutero dataset 79% sto 300K-700K</t>
   </si>
 </sst>
 </file>
@@ -234,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,6 +275,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -566,10 +583,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +603,7 @@
     <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="38.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="47.85546875" style="8" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -627,7 +644,7 @@
       <c r="L1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -668,7 +685,7 @@
       <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -689,10 +706,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1">
         <v>30</v>
@@ -710,7 +727,7 @@
         <v>0.77399829923465502</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,7 +768,7 @@
         <v>0.86938856406699005</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -792,12 +809,12 @@
         <v>0.88395600039639199</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -812,28 +829,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1">
         <v>30</v>
       </c>
-      <c r="H6" s="1">
-        <v>150</v>
-      </c>
       <c r="I6" s="1">
-        <v>0.43356797496053201</v>
+        <v>0.45253263651129</v>
       </c>
       <c r="J6" s="1">
-        <v>0.86986148844252398</v>
+        <v>0.85388350162062598</v>
       </c>
       <c r="K6" s="1">
-        <v>0.37473037838935802</v>
+        <v>0.60078906714916203</v>
       </c>
       <c r="L6" s="1">
-        <v>0.88068575958775097</v>
+        <v>0.70525504946929296</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>benchmark</t>
   </si>
@@ -168,6 +168,26 @@
   </si>
   <si>
     <t>overfitted den eixe accuracy sto upoloipo benchmar, na dokimasw megalutero dataset 79% sto 300K-700K</t>
+  </si>
+  <si>
+    <t>150-150.000</t>
+  </si>
+  <si>
+    <t>lr=1e-4 wd = lr/10 batch =64</t>
+  </si>
+  <si>
+    <t>lstm64_dataset250K.pt</t>
+  </si>
+  <si>
+    <t>RNNLayer(
+  (rnn): LSTM(2, 64, batch_first=True)
+  (normalization): BatchNorm1d(64, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
+  (fc): Linear(in_features=64, out_features=2, bias=True)
+  (softmax): Softmax(dim=-1)
+)</t>
+  </si>
+  <si>
+    <t>0.79 acc sto 300K 700K</t>
   </si>
 </sst>
 </file>
@@ -581,12 +601,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,12 +709,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -703,36 +723,36 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1">
         <v>30</v>
       </c>
       <c r="I3" s="1">
-        <v>0.49206424059391302</v>
+        <v>0.46</v>
       </c>
       <c r="J3" s="1">
-        <v>0.812608386322202</v>
+        <v>0.84</v>
       </c>
       <c r="K3" s="1">
-        <v>0.53567963838577204</v>
+        <v>0.62</v>
       </c>
       <c r="L3" s="1">
-        <v>0.77399829923465502</v>
+        <v>0.67</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -744,48 +764,48 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1">
         <v>30</v>
       </c>
-      <c r="H4" s="1">
-        <v>300</v>
-      </c>
       <c r="I4" s="1">
-        <v>0.43877539889849798</v>
+        <v>0.49206424059391302</v>
       </c>
       <c r="J4" s="1">
-        <v>0.86418295996080696</v>
+        <v>0.812608386322202</v>
       </c>
       <c r="K4" s="1">
-        <v>0.38935984671115798</v>
+        <v>0.53567963838577204</v>
       </c>
       <c r="L4" s="1">
-        <v>0.86938856406699005</v>
+        <v>0.77399829923465502</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>29</v>
@@ -794,30 +814,30 @@
         <v>30</v>
       </c>
       <c r="H5" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I5" s="1">
-        <v>0.448545122227268</v>
+        <v>0.43877539889849798</v>
       </c>
       <c r="J5" s="1">
-        <v>0.85554268917293896</v>
+        <v>0.86418295996080696</v>
       </c>
       <c r="K5" s="1">
-        <v>0.374949961900711</v>
+        <v>0.38935984671115798</v>
       </c>
       <c r="L5" s="1">
-        <v>0.88395600039639199</v>
+        <v>0.86938856406699005</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>33</v>
@@ -829,27 +849,68 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1">
+        <v>150</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.448545122227268</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.85554268917293896</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.374949961900711</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.88395600039639199</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H7" s="1">
         <v>30</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I7" s="1">
         <v>0.45253263651129</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J7" s="1">
         <v>0.85388350162062598</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K7" s="1">
         <v>0.60078906714916203</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L7" s="1">
         <v>0.70525504946929296</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>41</v>
       </c>
     </row>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -167,9 +167,6 @@
     <t>overfitted den eixe accuracy sto upoloipo benchmark, na dokimasw megalutero dataset 82% sto 300K - 700K</t>
   </si>
   <si>
-    <t>overfitted den eixe accuracy sto upoloipo benchmar, na dokimasw megalutero dataset 79% sto 300K-700K</t>
-  </si>
-  <si>
     <t>150-150.000</t>
   </si>
   <si>
@@ -188,6 +185,11 @@
   </si>
   <si>
     <t>0.79 acc sto 300K 700K</t>
+  </si>
+  <si>
+    <t>50
+0-30 lr1e-4
+30-50 lr1e-5</t>
   </si>
 </sst>
 </file>
@@ -603,10 +605,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,10 +713,10 @@
     </row>
     <row r="3" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -723,10 +725,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>38</v>
@@ -747,7 +749,7 @@
         <v>0.67</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -849,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1">
-        <v>150</v>
+        <v>36</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="I6" s="1">
         <v>0.448545122227268</v>
@@ -864,13 +866,10 @@
         <v>0.85554268917293896</v>
       </c>
       <c r="K6" s="1">
-        <v>0.374949961900711</v>
+        <v>0.59</v>
       </c>
       <c r="L6" s="1">
-        <v>0.88395600039639199</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>43</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>benchmark</t>
   </si>
@@ -190,6 +190,18 @@
     <t>50
 0-30 lr1e-4
 30-50 lr1e-5</t>
+  </si>
+  <si>
+    <t>PC ENCODED MODELS</t>
+  </si>
+  <si>
+    <t>lstm64_lr1e-4_encodedPC.pt</t>
+  </si>
+  <si>
+    <t>sequence of 200 hundred history tuples. Each tuple (program counter 8 LSB, Taken/Not taken)', 'batch_size': 64</t>
+  </si>
+  <si>
+    <t>overfitted na dokimasw simple/  model</t>
   </si>
 </sst>
 </file>
@@ -221,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -266,11 +278,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,6 +336,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -603,21 +651,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="97.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="8" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
@@ -636,13 +684,13 @@
       <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -683,7 +731,7 @@
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -724,7 +772,7 @@
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -765,7 +813,7 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -806,7 +854,7 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -847,7 +895,7 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -872,7 +920,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -885,7 +933,7 @@
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -913,7 +961,68 @@
         <v>41</v>
       </c>
     </row>
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" ht="100.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.34873588007329798</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.96445959104186896</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.59211654464403696</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.730444873500665</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:M8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>benchmark</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Input Data</t>
-  </si>
-  <si>
-    <t>600.perlbench</t>
   </si>
   <si>
     <t>70.000-80.000</t>
@@ -202,6 +199,26 @@
   </si>
   <si>
     <t>overfitted na dokimasw simple/  model</t>
+  </si>
+  <si>
+    <t>RNNLayer(
+  (rnn): LSTM(2, 32, batch_first=True)
+  (normalization): BatchNorm1d(32, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
+  (fc): Linear(in_features=32, out_features=2, bias=True)
+  (softmax): Softmax(dim=-1)
+)</t>
+  </si>
+  <si>
+    <t>lstm32_lr1e-4_encodedPC.pt</t>
+  </si>
+  <si>
+    <t>{'input_bench': ['600.perlbench_s-1273B.champsimtrace.xz._.dataset_unique.txt.gz'], 'samples': {'startSample': 100, 'endSample': 250000, 'ratio': 0.6, 'encodePCList': True}, 'type': 'sequence of 200 hundred history tuples. Each tuple (program counter 8 LSB, Taken/Not taken)', 'batch_size': 64}</t>
+  </si>
+  <si>
+    <t>600.perlbench_1273B</t>
+  </si>
+  <si>
+    <t>Accuracy on same bench, different simpoint</t>
   </si>
 </sst>
 </file>
@@ -306,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,18 +333,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -341,13 +346,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -651,135 +662,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="97.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="47.85546875" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="47.85546875" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="1">
         <v>100</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1">
         <v>30</v>
@@ -796,31 +811,31 @@
       <c r="L3" s="1">
         <v>0.67</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>47</v>
+      <c r="N3" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>21</v>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H4" s="1">
         <v>30</v>
@@ -837,31 +852,31 @@
       <c r="L4" s="1">
         <v>0.77399829923465502</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>40</v>
+      <c r="N4" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="H5" s="1">
         <v>300</v>
@@ -878,34 +893,34 @@
       <c r="L5" s="1">
         <v>0.86938856406699005</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>42</v>
+      <c r="N5" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>48</v>
+      <c r="H6" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="I6" s="1">
         <v>0.448545122227268</v>
@@ -920,27 +935,27 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="H7" s="1">
         <v>30</v>
@@ -957,48 +972,49 @@
       <c r="L7" s="1">
         <v>0.70525504946929296</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>41</v>
+      <c r="N7" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:14" s="7" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" ht="100.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" ht="100.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="H9" s="1">
         <v>30</v>
@@ -1015,13 +1031,51 @@
       <c r="L9" s="1">
         <v>0.730444873500665</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="N9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.34496912213914399</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.96841445358872102</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.51604442596435496</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.80185272256179896</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -664,10 +664,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
     <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="4" customWidth="1"/>
     <col min="14" max="14" width="47.85546875" style="4" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>benchmark</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Accuracy on same bench, different simpoint</t>
+  </si>
+  <si>
+    <t>πιθανο overfitting. Na dokimasw πιο απλο  μοντελο, λιγοτερο training και μεγαλυτερο training dataset</t>
   </si>
 </sst>
 </file>
@@ -667,7 +670,7 @@
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,6 +1074,12 @@
       </c>
       <c r="L10" s="1">
         <v>0.80185272256179896</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.549873593714444</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>benchmark</t>
   </si>
@@ -222,6 +222,27 @@
   </si>
   <si>
     <t>πιθανο overfitting. Na dokimasw πιο απλο  μοντελο, λιγοτερο training και μεγαλυτερο training dataset</t>
+  </si>
+  <si>
+    <t>lstm32_lr1e-4_encodedPC_210B.pt</t>
+  </si>
+  <si>
+    <t>{'input_bench': ['600.perlbench_s210B.champsimtrace.xz._.dataset_unique.txt.gz'], 'samples': {'startSample': 100, 'endSample': 400000, 'ratio': 0.8}, 'encodePCList': True, 'type': 'sequence of 200 hundred history tuples. Each tuple (program counter 8 LSB, Taken/Not taken)', 'batch_size': 64}</t>
+  </si>
+  <si>
+    <t>600.perlbench_s-210B</t>
+  </si>
+  <si>
+    <t>100-320.000</t>
+  </si>
+  <si>
+    <t>320.000-400.000</t>
+  </si>
+  <si>
+    <t>loss: 0.6119927108287812 acc: 0.6253369407034371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">φαινεται καλυτεαρ να γινεται training στο 210 simpoint </t>
   </si>
 </sst>
 </file>
@@ -665,12 +686,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,6 +1055,9 @@
       <c r="L9" s="1">
         <v>0.730444873500665</v>
       </c>
+      <c r="M9" s="4">
+        <v>0.5</v>
+      </c>
       <c r="N9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1080,6 +1104,50 @@
       </c>
       <c r="N10" s="4" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="1">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.52692000550326101</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.76577655108604903</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.53527046491702401</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.74682420605151201</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>benchmark</t>
   </si>
@@ -243,6 +243,23 @@
   </si>
   <si>
     <t xml:space="preserve">φαινεται καλυτεαρ να γινεται training στο 210 simpoint </t>
+  </si>
+  <si>
+    <t>lstm64_lr1e-4_encodedPC_210B.pt</t>
+  </si>
+  <si>
+    <t>RNNLayer(
+  (rnn): LSTM(2, 64, batch_first=True)
+  (normalization): BatchNorm1d(32, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
+  (fc): Linear(in_features=32, out_features=2, bias=True)
+  (softmax): Softmax(dim=-1)
+)</t>
+  </si>
+  <si>
+    <t>loss: 0.5186985418200493 acc: 0.793119658333375</t>
+  </si>
+  <si>
+    <t>kalo accuracy sto 1273B otan kanei train sto 210B</t>
   </si>
 </sst>
 </file>
@@ -686,12 +703,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,6 +1165,50 @@
       </c>
       <c r="N11" s="4" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.34634960058403602</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.96623541436792204</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.435913292070229</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.89294823705926396</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t>benchmark</t>
   </si>
@@ -260,6 +260,15 @@
   </si>
   <si>
     <t>kalo accuracy sto 1273B otan kanei train sto 210B</t>
+  </si>
+  <si>
+    <t>lstm128_lr1e-4_encodedPC_210B.pt</t>
+  </si>
+  <si>
+    <t>loss: 0.5167057618498803 acc: 0.7956726561679528</t>
+  </si>
+  <si>
+    <t>na dokimasoume megalutero dataset apo 210B</t>
   </si>
 </sst>
 </file>
@@ -703,12 +712,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,6 +1218,50 @@
       </c>
       <c r="N12" s="4" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.34533574484448099</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.96736069217087906</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.41966166843970598</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.89478619654913705</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>benchmark</t>
   </si>
@@ -256,19 +256,22 @@
 )</t>
   </si>
   <si>
-    <t>loss: 0.5186985418200493 acc: 0.793119658333375</t>
-  </si>
-  <si>
     <t>kalo accuracy sto 1273B otan kanei train sto 210B</t>
   </si>
   <si>
     <t>lstm128_lr1e-4_encodedPC_210B.pt</t>
   </si>
   <si>
-    <t>loss: 0.5167057618498803 acc: 0.7956726561679528</t>
-  </si>
-  <si>
-    <t>na dokimasoume megalutero dataset apo 210B</t>
+    <t>100-800.000</t>
+  </si>
+  <si>
+    <t>800.000-1.000.000</t>
+  </si>
+  <si>
+    <t>loss: 0.4828525796532631 acc: 0.8484004380854266</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> loss: 0.41334930062294006 acc: 0.9000805157005616</t>
   </si>
 </sst>
 </file>
@@ -714,10 +717,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,36 +1196,36 @@
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H12" s="1">
         <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>0.34634960058403602</v>
+        <v>0.339340209033415</v>
       </c>
       <c r="J12" s="1">
-        <v>0.96623541436792204</v>
+        <v>0.97452748458910299</v>
       </c>
       <c r="K12" s="1">
-        <v>0.435913292070229</v>
+        <v>0.45481888384654601</v>
       </c>
       <c r="L12" s="1">
-        <v>0.89294823705926396</v>
+        <v>0.85686568656865603</v>
       </c>
       <c r="M12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -1237,30 +1240,27 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H13" s="1">
         <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>0.34533574484448099</v>
+        <v>0.33495803273566299</v>
       </c>
       <c r="J13" s="1">
-        <v>0.96736069217087906</v>
+        <v>0.97855663246745594</v>
       </c>
       <c r="K13" s="1">
-        <v>0.41966166843970598</v>
+        <v>0.46166441050069001</v>
       </c>
       <c r="L13" s="1">
-        <v>0.89478619654913705</v>
+        <v>0.85344534453445298</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" s="4" t="s">
         <v>71</v>
       </c>
     </row>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -242,7 +242,7 @@
     <t xml:space="preserve">0.947888746649598</t>
   </si>
   <si>
-    <t xml:space="preserve">loss: 0.34531849600485903 acc: 0.9676369901550633</t>
+    <t xml:space="preserve"> loss: 0.3524334967881441 acc: 0.9606477603206793</t>
   </si>
   <si>
     <t xml:space="preserve">lstm64_lr1e-4_encodedPC_210B.pt</t>
@@ -469,12 +469,10 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="G2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -965,11 +963,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -988,11 +986,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -218,7 +218,7 @@
 )</t>
   </si>
   <si>
-    <t xml:space="preserve">{'input_bench': ['600.perlbench_s210B.champsimtrace.xz._.dataset_unique.txt.gz'], 'samples': {'startSample': 100, 'endSample': 400000, 'ratio': 0.8}, 'encodePCList': True, 'type': 'sequence of 200 hundred history tuples. Each tuple (program counter 8 LSB, Taken/Not taken)', 'batch_size': 64}</t>
+    <t xml:space="preserve">{'input_bench': ['600.perlbench_s210B.champsimtrace.xz._.dataset_unique.txt.gz'], 'samples': {'startSample': 100, 'endSample': 800000, 'ratio': 0.75}, 'encodePCList': True, 'type': 'sequence of 200 hundred history tuples. Each tuple (program counter 8 LSB, Taken/Not taken)', 'batch_size': 64}</t>
   </si>
   <si>
     <t xml:space="preserve">600.perlbench_s-210B</t>
@@ -254,9 +254,6 @@
   (fc): Linear(in_features=32, out_features=2, bias=True)
   (softmax): Softmax(dim=-1)
 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'input_bench': ['600.perlbench_s210B.champsimtrace.xz._.dataset_unique.txt.gz'], 'samples': {'startSample': 100, 'endSample': 1000000, 'ratio': 0.8}, 'encodePCList': True, 'type': 'sequence of 200 hundred history tuples. Each tuple (program counter 8 LSB, Taken/Not taken)', 'batch_size': 64}</t>
   </si>
   <si>
     <t xml:space="preserve">0.339409</t>
@@ -469,10 +466,10 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="G2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -866,7 +863,7 @@
         <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
@@ -884,24 +881,24 @@
         <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="M11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="3" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>34</v>
@@ -925,19 +922,19 @@
         <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -967,7 +964,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -990,7 +987,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -230,21 +230,6 @@
     <t xml:space="preserve">600.000-800.000</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3682328023994643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9447921172314301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36498628750443457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947888746649598</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> loss: 0.3524334967881441 acc: 0.9606477603206793</t>
-  </si>
-  <si>
     <t xml:space="preserve">lstm64_lr1e-4_encodedPC_210B.pt</t>
   </si>
   <si>
@@ -256,37 +241,42 @@
 )</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964067746605294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34847736625529047 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9645851770741146 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,97% accuracy sto 1273B</t>
-  </si>
-  <si>
     <t xml:space="preserve">lstm128_lr1e-4_encodedPC_210B.pt</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34219137120595333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9710231411488398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3378862003982067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9752470296435573</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> loss: 0.3316963408142328 acc: 0.981510423829898</t>
+    <t xml:space="preserve">0.4187138080787679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8895999013213274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.416560530513525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8929321518582229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lstm256_lr1e-4_encodedPC_210B.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNNLayer(
+  (rnn): LSTM(1, 256, batch_first=True)
+  (normalization): BatchNorm1d(256, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
+  (fc): Linear(in_features=256, out_features=2, bias=True)
+  (softmax): Softmax(dim=-1)
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4168884484612003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8914034540869139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4164851498603821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8921070528463415</t>
   </si>
 </sst>
 </file>
@@ -466,10 +456,10 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="G3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -839,28 +829,13 @@
       <c r="H10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>54</v>
@@ -880,25 +855,12 @@
       <c r="H11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>34</v>
@@ -919,25 +881,59 @@
         <v>57</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="84.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:N2"/>
@@ -964,7 +960,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -987,7 +983,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -301,6 +301,37 @@
   </si>
   <si>
     <t>{'input_bench': ['600.perlbench_s-210B.champsimtrace.xz._.dataset_unique.txt.gz'], 'samples': {'startSample': 100, 'endSample': 400, 'ratio': 0.75}, 'encodePCList': True, 'type': 'sequence of 200 1-hot columns. columns contain 1 at the position of the encoded PC &amp; Taken/NotTaken path, or 0 otherwise', 'batch_size': 64}</t>
+  </si>
+  <si>
+    <t>Transformer Model</t>
+  </si>
+  <si>
+    <t>transformer_256.pt</t>
+  </si>
+  <si>
+    <t>RNNLayer(
+  (rnn): TransformerEncoderLayer(
+    (self_attn): MultiheadAttention(
+      (out_proj): Linear(in_features=256, out_features=256, bias=True)
+    )
+    (linear1): Linear(in_features=256, out_features=2048, bias=True)
+    (dropout): Dropout(p=0.1, inplace=False)
+    (linear2): Linear(in_features=2048, out_features=256, bias=True)
+    (norm1): LayerNorm((256,), eps=1e-05, elementwise_affine=True)
+    (norm2): LayerNorm((256,), eps=1e-05, elementwise_affine=True)
+    (dropout1): Dropout(p=0.1, inplace=False)
+    (dropout2): Dropout(p=0.1, inplace=False)
+  )
+  (fc): Linear(in_features=51200, out_features=2, bias=True)
+  (softmax): Softmax(dim=-1)
+)</t>
+  </si>
+  <si>
+    <t>{'input_bench': ['600.perlbench_s-210B.champsimtrace.xz._.dataset_unique.txt.gz'], 'samples': {'startSample': 100, 'endSample': 400, 'ratio': 0.75}, 'encodePCList': True, 'type': '200 sequence. kathe word tou sequence in 256 psifia, ola einai 0 ektos apo to 1 pou mpainei sti thesi simfona me to encoding 7bits pc +
+taken/notTaken (opws sto paper)', 'batch_size': 64}</t>
+  </si>
+  <si>
+    <t>validation: loss: 0.42962695865494266 acc: 0.883307412389711</t>
   </si>
 </sst>
 </file>
@@ -426,11 +457,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,11 +764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ14"/>
+  <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,22 +835,22 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1065,22 +1096,22 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1212,11 +1243,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1250,10 +1281,70 @@
         <v>0.89315217826139104</v>
       </c>
     </row>
+    <row r="15" spans="1:14" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="267" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="1">
+        <v>30</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.42058739200288398</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.89243858002723597</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.41919161067962601</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.89377725327039204</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A15:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -298,9 +298,6 @@
   </si>
   <si>
     <t>lstm64_encodedPC_1hot_210B.pt</t>
-  </si>
-  <si>
-    <t>{'input_bench': ['600.perlbench_s-210B.champsimtrace.xz._.dataset_unique.txt.gz'], 'samples': {'startSample': 100, 'endSample': 400, 'ratio': 0.75}, 'encodePCList': True, 'type': 'sequence of 200 1-hot columns. columns contain 1 at the position of the encoded PC &amp; Taken/NotTaken path, or 0 otherwise', 'batch_size': 64}</t>
   </si>
   <si>
     <t>Transformer Model</t>
@@ -327,11 +324,36 @@
 )</t>
   </si>
   <si>
-    <t>{'input_bench': ['600.perlbench_s-210B.champsimtrace.xz._.dataset_unique.txt.gz'], 'samples': {'startSample': 100, 'endSample': 400, 'ratio': 0.75}, 'encodePCList': True, 'type': '200 sequence. kathe word tou sequence in 256 psifia, ola einai 0 ektos apo to 1 pou mpainei sti thesi simfona me to encoding 7bits pc +
+    <t>validation: loss: 0.42962695865494266 acc: 0.883307412389711</t>
+  </si>
+  <si>
+    <t>CNN Model</t>
+  </si>
+  <si>
+    <t>TwoLayerFullPrecisionBPCNN(
+  (c1): Conv2d(16, 2, kernel_size=(1, 1), stride=(1, 1))
+  (tahn): Tanh()
+  (l2): Linear(in_features=6400, out_features=2, bias=True)
+  (sigmoid2): Sigmoid()
+  (softmax): Softmax(dim=-1)
+)</t>
+  </si>
+  <si>
+    <t>{'input_bench': ['600.perlbench_s-210B.champsimtrace.xz._.dataset_unique.txt.gz'], 'samples': {'startSample': 100, 'endSample': 800000, 'ratio': 0.75}, 'encodePCList': True, 'type': 'sequence of 200 1-hot columns. columns contain 1 at the position of the encoded PC &amp; Taken/NotTaken path, or 0 otherwise', 'batch_size': 64}</t>
+  </si>
+  <si>
+    <t>{'input_bench': ['600.perlbench_s-210B.champsimtrace.xz._.dataset_unique.txt.gz'], 'samples': {'startSample': 100, 'endSample': 800000, 'ratio': 0.75}, 'encodePCList': True, 'type': '200 sequence. kathe word tou sequence in 256 psifia, ola einai 0 ektos apo to 1 pou mpainei sti thesi simfona me to encoding 7bits pc +
 taken/notTaken (opws sto paper)', 'batch_size': 64}</t>
   </si>
   <si>
-    <t>validation: loss: 0.42962695865494266 acc: 0.883307412389711</t>
+    <t>{'input_bench': ['600.perlbench_s-210B.champsimtrace.xz._.dataset_unique.txt.gz OVERSAMPLED, exei ta 3plasia True branch predictions'], 'samples': {'startSample': 100, 'endSample': 800000, 'ratio': 0.75}, 'encodePCList': True, 'type': 'Pinakas 200x256. kathe grammi apo tis 200 einai 256 psifia, ola einai 0 ektos apo to 1 pou mpainei sti thesi simfona me to encoding 7bits pc +
+taken/notTaken (opws sto paper)', 'batch_size': 64}</t>
+  </si>
+  <si>
+    <t>cnn_lr1e-4.pt</t>
+  </si>
+  <si>
+    <t>oversampled</t>
   </si>
 </sst>
 </file>
@@ -764,11 +786,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ16"/>
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1273,7 @@
         <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>55</v>
@@ -1283,7 +1305,7 @@
     </row>
     <row r="15" spans="1:14" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1299,15 +1321,15 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="267" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="267" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>55</v>
@@ -1337,14 +1359,71 @@
         <v>0.89377725327039204</v>
       </c>
       <c r="M16" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="170.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>80</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="1">
+        <v>63</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.55575995517294996</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.85525423930010702</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.54010051786899504</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.88946173540824902</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -327,9 +327,6 @@
     <t>validation: loss: 0.42962695865494266 acc: 0.883307412389711</t>
   </si>
   <si>
-    <t>CNN Model</t>
-  </si>
-  <si>
     <t>TwoLayerFullPrecisionBPCNN(
   (c1): Conv2d(16, 2, kernel_size=(1, 1), stride=(1, 1))
   (tahn): Tanh()
@@ -350,10 +347,41 @@
 taken/notTaken (opws sto paper)', 'batch_size': 64}</t>
   </si>
   <si>
-    <t>cnn_lr1e-4.pt</t>
-  </si>
-  <si>
     <t>oversampled</t>
+  </si>
+  <si>
+    <t>CNN Regression</t>
+  </si>
+  <si>
+    <t>CNN Model Classification</t>
+  </si>
+  <si>
+    <t>pt\CNN\classification/cnn_lr1e-4.pt</t>
+  </si>
+  <si>
+    <t>pt\CNN\regression\CNNregressionPaper.pt</t>
+  </si>
+  <si>
+    <t>lr=1e-3 weightdecay=lr/10  batchsize=5000</t>
+  </si>
+  <si>
+    <t>{'input_bench': ['600.perlbench_s-210B.champsimtrace.xz._.dataset_unique.txt.gz], 'samples': {'startSample': 100, 'endSample': 800000, 'ratio': 0.75}, 'encodePCList': True, 'type': 'Pinakas 200x256. kathe grammi apo tis 200 einai 256 psifia, ola einai 0 ektos apo to 1 pou mpainei sti thesi simfona me to encoding 7bits pc +
+taken/notTaken (opws sto paper)', 'batch_size': 64}</t>
+  </si>
+  <si>
+    <t>TwoLayerFullPrecisionBPCNN(
+  (c1): Conv2d(256, 2, kernel_size=(1, 1), stride=(1, 1))
+  (tahn): Tanh()
+  (l2): Linear(in_features=400, out_features=1, bias=True)
+  (sigmoid2): Sigmoid()
+)
+o pinakas 256x200 metatrepetai se 256 input filters opou einai monodiastati pinakes 1x200 kai ginetai Conv2d, meta to apotelesma einai 2 filters opote exoume 2*200 ta opoia pernane apo linear (opws sto paper)</t>
+  </si>
+  <si>
+    <t>5000 samples randomly epilegmena apo olo to dataset</t>
+  </si>
+  <si>
+    <t>(600.000-800.000 ) kapoia random epilgmena samples se auto to kommati</t>
   </si>
 </sst>
 </file>
@@ -786,11 +814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ18"/>
+  <dimension ref="A1:AMJ20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,8 +828,8 @@
     <col min="3" max="3" width="43.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
@@ -890,10 +918,10 @@
       <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="1">
@@ -931,10 +959,10 @@
       <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="1">
@@ -972,10 +1000,10 @@
       <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="1">
@@ -1013,10 +1041,10 @@
       <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="1">
@@ -1054,10 +1082,10 @@
       <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1092,10 +1120,10 @@
       <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="1">
@@ -1151,10 +1179,10 @@
       <c r="E10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="1">
@@ -1177,10 +1205,10 @@
       <c r="E11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H11" s="1">
@@ -1205,10 +1233,10 @@
       <c r="E12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="1">
@@ -1243,10 +1271,10 @@
       <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="1">
@@ -1273,7 +1301,7 @@
         <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>55</v>
@@ -1281,10 +1309,10 @@
       <c r="E14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H14" s="1">
@@ -1329,7 +1357,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>55</v>
@@ -1337,10 +1365,10 @@
       <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H16" s="1">
@@ -1364,7 +1392,7 @@
     </row>
     <row r="17" spans="1:14" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1380,15 +1408,15 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="1:14" ht="170.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="170.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>55</v>
@@ -1396,10 +1424,10 @@
       <c r="E18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H18" s="1">
@@ -1418,12 +1446,72 @@
         <v>0.88946173540824902</v>
       </c>
     </row>
+    <row r="19" spans="1:14" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="168.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="1">
+        <v>40</v>
+      </c>
+      <c r="I20" s="1">
+        <v>7.3894679074800407E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="K20" s="1">
+        <v>8.9948818087577806E-2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.86079703151019904</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="A15:N15"/>
     <mergeCell ref="A17:N17"/>
+    <mergeCell ref="A19:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>(600.000-800.000 ) kapoia random epilgmena samples se auto to kommati</t>
+  </si>
+  <si>
+    <t>loss: 0.19515379269917807 acc: 0.8607970315101992</t>
   </si>
 </sst>
 </file>
@@ -1501,8 +1504,8 @@
       <c r="L20" s="1">
         <v>0.88680000000000003</v>
       </c>
-      <c r="M20" s="3">
-        <v>0.86079703151019904</v>
+      <c r="M20" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/models/model-results.xlsx
+++ b/models/model-results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="98">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -255,9 +255,6 @@
     <t>0.8929321518582229</t>
   </si>
   <si>
-    <t>lstm256_lr1e-4_encodedPC_210B.pt</t>
-  </si>
-  <si>
     <t>RNNLayer(
   (rnn): LSTM(1, 256, batch_first=True)
   (normalization): BatchNorm1d(256, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
@@ -295,9 +292,6 @@
   (fc): Linear(in_features=64, out_features=2, bias=True)
   (softmax): Softmax(dim=-1)
 )</t>
-  </si>
-  <si>
-    <t>lstm64_encodedPC_1hot_210B.pt</t>
   </si>
   <si>
     <t>Transformer Model</t>
@@ -385,6 +379,26 @@
   </si>
   <si>
     <t>loss: 0.19515379269917807 acc: 0.8607970315101992</t>
+  </si>
+  <si>
+    <t>pt/lstm/encodedPC/1hot/lstm64_encodedPC_1hot_210B.pt</t>
+  </si>
+  <si>
+    <t>pt/lstm/encodedPC/dekadikosArithmos/lstm256_lr1e-4_encodedPC_210B.pt</t>
+  </si>
+  <si>
+    <t>pt\CNN\regression\CNNregression500Whole.pt</t>
+  </si>
+  <si>
+    <t>{'input_bench': ['600.perlbench_s-210B.champsimtrace.xz._.dataset_unique.txt.gz], 'samples': {'startSample': 100, 'endSample': 800000, 'ratio': 0.75}, 'encodePCList': True, 'type': 'Pinakas 200x256. kathe grammi apo tis 200 einai 256 psifia, ola einai 0 ektos apo to 1 pou mpainei sti thesi simfona me to encoding 7bits pc +
+taken/notTaken (opws sto paper)', 'batch_size': 64}
+egine train se 5000 random samples apo kathe H2P sto dataset</t>
+  </si>
+  <si>
+    <t>5000 samples GIA KATHE H2P randomly epilegmena apo olo to dataset</t>
+  </si>
+  <si>
+    <t>validation: loss: 0.18432347817967334 acc: 0.8815872597832737</t>
   </si>
 </sst>
 </file>
@@ -817,16 +831,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ20"/>
+  <dimension ref="A1:AMJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="68.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="97.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
@@ -1225,10 +1239,10 @@
         <v>60</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
@@ -1260,13 +1274,13 @@
     </row>
     <row r="13" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>55</v>
@@ -1284,27 +1298,27 @@
         <v>100</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>55</v>
@@ -1336,7 +1350,7 @@
     </row>
     <row r="15" spans="1:14" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1354,13 +1368,13 @@
     </row>
     <row r="16" spans="1:14" ht="267" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>55</v>
@@ -1390,12 +1404,12 @@
         <v>0.89377725327039204</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1413,13 +1427,13 @@
     </row>
     <row r="18" spans="1:14" ht="170.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>55</v>
@@ -1428,7 +1442,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>57</v>
@@ -1451,7 +1465,7 @@
     </row>
     <row r="19" spans="1:14" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1469,25 +1483,25 @@
     </row>
     <row r="20" spans="1:14" ht="168.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H20" s="1">
         <v>40</v>
@@ -1505,7 +1519,48 @@
         <v>0.88680000000000003</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="1">
+        <v>40</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.13186327845398199</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.81841666666666602</v>
+      </c>
+      <c r="K21" s="1">
+        <v>8.0322235822677598E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
